--- a/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_AbraconAOCJYR.xlsx
+++ b/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_AbraconAOCJYR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\QUANTUM\QUANTUM\Qantum Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F8248D-BD04-432E-BAD0-59E591367B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5620DF-C0B7-4A6D-99F1-4513D95545CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="20976" windowHeight="10956" xr2:uid="{E09280E7-2BF4-42D8-B515-C7961E9A6174}"/>
+    <workbookView xWindow="348" yWindow="576" windowWidth="20976" windowHeight="10956" xr2:uid="{E09280E7-2BF4-42D8-B515-C7961E9A6174}"/>
   </bookViews>
   <sheets>
     <sheet name="OCXO_DaughterCard_AbraconAOCJYR" sheetId="1" r:id="rId1"/>
@@ -826,13 +826,13 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="38.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.109375" customWidth="1"/>

--- a/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_AbraconAOCJYR.xlsx
+++ b/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_AbraconAOCJYR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5620DF-C0B7-4A6D-99F1-4513D95545CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10357379-DE8E-4589-B648-AB13FE82BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="576" windowWidth="20976" windowHeight="10956" xr2:uid="{E09280E7-2BF4-42D8-B515-C7961E9A6174}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E09280E7-2BF4-42D8-B515-C7961E9A6174}"/>
   </bookViews>
   <sheets>
     <sheet name="OCXO_DaughterCard_AbraconAOCJYR" sheetId="1" r:id="rId1"/>
@@ -505,10 +505,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -826,576 +830,576 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="68.109375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>1</v>
       </c>
     </row>
